--- a/Opleverset/Extra documenten/aangepast met berkenign grote tank Scriptie Jelle Willemen-Floating Farm - Bijlage Rekenmodel gewichtsverdeling.xlsx
+++ b/Opleverset/Extra documenten/aangepast met berkenign grote tank Scriptie Jelle Willemen-Floating Farm - Bijlage Rekenmodel gewichtsverdeling.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyril\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyril\Desktop\Project-5-6---Floating-Farm\Opleverset\Extra documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEBD48AD-B7C5-4659-A165-57A84E66DF60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E8CC6E-F0B9-49EA-9BFC-C28F1FDF49D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="747" firstSheet="3" activeTab="6" xr2:uid="{C9B0FE52-629E-47BA-9955-0395F0E7E877}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="747" firstSheet="2" activeTab="7" xr2:uid="{C9B0FE52-629E-47BA-9955-0395F0E7E877}"/>
   </bookViews>
   <sheets>
     <sheet name="Toelichting model" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Belastingsverdeling" sheetId="5" r:id="rId5"/>
     <sheet name="Moment verdeling hor. as" sheetId="6" r:id="rId6"/>
     <sheet name="Moment verdeling vert. as" sheetId="7" r:id="rId7"/>
+    <sheet name="groote schaal model" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="226">
   <si>
     <t>Deze rekensheet is een overzicht van de gewichtverdeling van de gehele boerderij</t>
   </si>
@@ -775,15 +776,53 @@
   <si>
     <t>Moment abs (Nm)</t>
   </si>
+  <si>
+    <t>breed</t>
+  </si>
+  <si>
+    <t>lengthe</t>
+  </si>
+  <si>
+    <t>formaat beton blok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hoogte </t>
+  </si>
+  <si>
+    <t>grote floating farm (m)</t>
+  </si>
+  <si>
+    <t>grote schaal model (cm)</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>grote floating farm (cm)</t>
+  </si>
+  <si>
+    <t>ration</t>
+  </si>
+  <si>
+    <t>drijf tank volume</t>
+  </si>
+  <si>
+    <t>m^3</t>
+  </si>
+  <si>
+    <t>cm^3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="#,##0.00000"/>
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="#,##0.00000"/>
+    <numFmt numFmtId="170" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -821,6 +860,13 @@
     <font>
       <sz val="11"/>
       <color theme="9"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1203,10 +1249,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1334,12 +1381,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Komma" xfId="1" builtinId="3"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1682,7 +1732,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B67E5702-5F98-4EF8-A149-15FB2E56B1EA}">
   <dimension ref="A1:A17"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="134" workbookViewId="0">
+    <sheetView zoomScale="134" workbookViewId="0">
       <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
@@ -1767,8 +1817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CFD6690-25F0-4599-9992-736BE7C8D663}">
   <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView topLeftCell="AU16" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2824,7 +2874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF56697-13B9-4E3E-B1DF-4D844660A877}">
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
@@ -4159,8 +4209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{554313C8-6C97-4793-B84F-AC68D80FEE31}">
   <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5443,8 +5493,8 @@
   </sheetPr>
   <dimension ref="A1:AF12"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView topLeftCell="R1" zoomScale="90" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6446,7 +6496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{221C7ABC-5C4D-45CF-B17C-4450D6AC5256}">
   <dimension ref="A1:AX60"/>
   <sheetViews>
-    <sheetView topLeftCell="AN7" zoomScale="131" workbookViewId="0">
+    <sheetView topLeftCell="AJ9" zoomScale="91" workbookViewId="0">
       <selection activeCell="AY53" sqref="AY53"/>
     </sheetView>
   </sheetViews>
@@ -7832,7 +7882,7 @@
         <v>1860432.5959570312</v>
       </c>
       <c r="AT15" s="13">
-        <f t="shared" ref="AT15:AT60" si="1">ABS(AR$16)</f>
+        <f t="shared" ref="AT15:AT43" si="1">ABS(AR$16)</f>
         <v>482002.46679721895</v>
       </c>
       <c r="AU15">
@@ -7846,7 +7896,7 @@
         <v>9.81</v>
       </c>
       <c r="AX15">
-        <f t="shared" ref="AX15:AX60" si="2">AT15/(AW15*AV15*AU15)</f>
+        <f t="shared" ref="AX15:AX43" si="2">AT15/(AW15*AV15*AU15)</f>
         <v>24.640816782519781</v>
       </c>
     </row>
@@ -7867,7 +7917,7 @@
         <v>482002.46679721895</v>
       </c>
       <c r="AU16">
-        <f t="shared" ref="AU16:AU60" si="3">AU15+1</f>
+        <f t="shared" ref="AU16:AU43" si="3">AU15+1</f>
         <v>3</v>
       </c>
       <c r="AV16">
@@ -8554,8 +8604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD6A58AD-E082-4AE4-BE32-52B2B8CD07A6}">
   <dimension ref="A1:AW43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH7" zoomScale="108" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="AW32" sqref="AW32"/>
+    <sheetView topLeftCell="AP29" zoomScale="146" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10620,13 +10670,141 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9D3020A-0241-451B-89B2-1C903AEFDCDE}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B4">
+        <v>6.4</v>
+      </c>
+      <c r="C4">
+        <v>5.2</v>
+      </c>
+      <c r="D4">
+        <f>C4*100</f>
+        <v>520</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B5">
+        <v>30</v>
+      </c>
+      <c r="C5">
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D6" si="0">C5*100</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B6">
+        <v>30</v>
+      </c>
+      <c r="C6">
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C7" t="s">
+        <v>224</v>
+      </c>
+      <c r="D7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F7" s="56">
+        <f>D8/B8</f>
+        <v>812500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>220</v>
+      </c>
+      <c r="B8">
+        <f>B4*B5*B6</f>
+        <v>5760</v>
+      </c>
+      <c r="C8">
+        <f>C4*C5*C6</f>
+        <v>4680</v>
+      </c>
+      <c r="D8" s="55">
+        <f>D4*D5*D6</f>
+        <v>4680000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B9">
+        <f>D9/F7</f>
+        <v>11.076923076923077</v>
+      </c>
+      <c r="C9" s="55">
+        <v>9</v>
+      </c>
+      <c r="D9" s="56">
+        <f>C9*1000000</f>
+        <v>9000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004CEF96245D7C1E4BABEEA03D7ECE19C0" ma:contentTypeVersion="4" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="f72c6b3f2ff96562f14ae8449ff33f0d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0714667c-0a60-4810-ab6f-84607c76cfd4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f69e43b74bb03b9c993e12ef8729ea88" ns2:_="">
     <xsd:import namespace="0714667c-0a60-4810-ab6f-84607c76cfd4"/>
@@ -10770,6 +10948,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -10780,15 +10964,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A23B4FB9-F351-4206-B0AD-FF7C8B58859B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{340E62E5-999B-4585-922A-359AE6FF5DF0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10806,6 +10981,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A23B4FB9-F351-4206-B0AD-FF7C8B58859B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49A34E54-66C2-4D18-8E75-6202DF656FAF}">
   <ds:schemaRefs>

--- a/Opleverset/Extra documenten/aangepast met berkenign grote tank Scriptie Jelle Willemen-Floating Farm - Bijlage Rekenmodel gewichtsverdeling.xlsx
+++ b/Opleverset/Extra documenten/aangepast met berkenign grote tank Scriptie Jelle Willemen-Floating Farm - Bijlage Rekenmodel gewichtsverdeling.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyril\Desktop\Project-5-6---Floating-Farm\Opleverset\Extra documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E8CC6E-F0B9-49EA-9BFC-C28F1FDF49D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1651A19D-6862-4871-A728-DFFCA7631369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="747" firstSheet="2" activeTab="7" xr2:uid="{C9B0FE52-629E-47BA-9955-0395F0E7E877}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="747" firstSheet="2" activeTab="5" xr2:uid="{C9B0FE52-629E-47BA-9955-0395F0E7E877}"/>
   </bookViews>
   <sheets>
     <sheet name="Toelichting model" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="227">
   <si>
     <t>Deze rekensheet is een overzicht van de gewichtverdeling van de gehele boerderij</t>
   </si>
@@ -812,6 +812,9 @@
   <si>
     <t>cm^3</t>
   </si>
+  <si>
+    <t>alle koeien</t>
+  </si>
 </sst>
 </file>
 
@@ -820,7 +823,7 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="#,##0.00000"/>
-    <numFmt numFmtId="170" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -1385,8 +1388,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -1818,7 +1821,7 @@
   <dimension ref="A1:O56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1892,10 +1895,21 @@
       <c r="K2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="2"/>
+      <c r="L2" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="M2" s="1">
+        <f>600*31</f>
+        <v>18600</v>
+      </c>
+      <c r="N2" s="1">
+        <f>M2</f>
+        <v>18600</v>
+      </c>
+      <c r="O2" s="1">
+        <f>M2</f>
+        <v>18600</v>
+      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B3" s="11" t="s">
@@ -2874,8 +2888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF56697-13B9-4E3E-B1DF-4D844660A877}">
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5493,8 +5507,8 @@
   </sheetPr>
   <dimension ref="A1:AF12"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" zoomScale="90" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView topLeftCell="A2" zoomScale="90" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6313,7 +6327,7 @@
       </c>
       <c r="H11" s="21">
         <f>SUM('Verdieping 1'!M2:M3)</f>
-        <v>0</v>
+        <v>18600</v>
       </c>
       <c r="I11" s="22">
         <f>SUM('Verdieping 1'!M18:M19)</f>
@@ -6496,8 +6510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{221C7ABC-5C4D-45CF-B17C-4450D6AC5256}">
   <dimension ref="A1:AX60"/>
   <sheetViews>
-    <sheetView topLeftCell="AJ9" zoomScale="91" workbookViewId="0">
-      <selection activeCell="AY53" sqref="AY53"/>
+    <sheetView tabSelected="1" topLeftCell="AK17" zoomScale="96" workbookViewId="0">
+      <selection activeCell="AX28" sqref="AX28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7582,7 +7596,7 @@
       </c>
       <c r="H11" s="21">
         <f>SUM('Verdieping 1'!M2:M3)*3.5*3.75</f>
-        <v>0</v>
+        <v>244125</v>
       </c>
       <c r="I11" s="22">
         <f>SUM('Verdieping 1'!M18:M19)*3.5*3.75</f>
@@ -7590,7 +7604,7 @@
       </c>
       <c r="K11">
         <f>SUM(B8:I11)</f>
-        <v>46279.6875</v>
+        <v>290404.6875</v>
       </c>
       <c r="L11" s="9">
         <v>1</v>
@@ -7699,7 +7713,7 @@
       </c>
       <c r="AO11" s="9">
         <f t="shared" si="0"/>
-        <v>1706.25</v>
+        <v>245831.25</v>
       </c>
       <c r="AP11" s="9">
         <f t="shared" si="0"/>
@@ -7853,7 +7867,7 @@
       </c>
       <c r="AT14" s="13">
         <f>ABS(AR$16)</f>
-        <v>482002.46679721895</v>
+        <v>2876050.898047219</v>
       </c>
       <c r="AU14">
         <v>1</v>
@@ -7866,7 +7880,7 @@
       </c>
       <c r="AX14">
         <f>AT14/(AW14*AV14*AU14)</f>
-        <v>49.281633565039563</v>
+        <v>294.057595625533</v>
       </c>
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.3">
@@ -7875,15 +7889,15 @@
       </c>
       <c r="AP15">
         <f>SUM(K11,V11,AG11)</f>
-        <v>189711.328125</v>
+        <v>433836.328125</v>
       </c>
       <c r="AR15" s="51">
         <f>AP15*AO$21</f>
-        <v>1860432.5959570312</v>
+        <v>4254481.0272070309</v>
       </c>
       <c r="AT15" s="13">
         <f t="shared" ref="AT15:AT43" si="1">ABS(AR$16)</f>
-        <v>482002.46679721895</v>
+        <v>2876050.898047219</v>
       </c>
       <c r="AU15">
         <f>AU14+1</f>
@@ -7897,7 +7911,7 @@
       </c>
       <c r="AX15">
         <f t="shared" ref="AX15:AX43" si="2">AT15/(AW15*AV15*AU15)</f>
-        <v>24.640816782519781</v>
+        <v>147.0287978127665</v>
       </c>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.3">
@@ -7906,15 +7920,15 @@
       </c>
       <c r="AP16" s="1">
         <f>AP14-AP15</f>
-        <v>-49150.573008847976</v>
+        <v>-293275.573008848</v>
       </c>
       <c r="AR16" s="50">
         <f>AP16*AO$21</f>
-        <v>-482002.46679721895</v>
+        <v>-2876050.898047219</v>
       </c>
       <c r="AT16" s="13">
         <f t="shared" si="1"/>
-        <v>482002.46679721895</v>
+        <v>2876050.898047219</v>
       </c>
       <c r="AU16">
         <f t="shared" ref="AU16:AU43" si="3">AU15+1</f>
@@ -7928,7 +7942,7 @@
       </c>
       <c r="AX16">
         <f t="shared" si="2"/>
-        <v>16.427211188346519</v>
+        <v>98.019198541844332</v>
       </c>
     </row>
     <row r="17" spans="39:50" x14ac:dyDescent="0.3">
@@ -7937,7 +7951,7 @@
       </c>
       <c r="AT17" s="13">
         <f t="shared" si="1"/>
-        <v>482002.46679721895</v>
+        <v>2876050.898047219</v>
       </c>
       <c r="AU17">
         <f t="shared" si="3"/>
@@ -7951,13 +7965,13 @@
       </c>
       <c r="AX17">
         <f t="shared" si="2"/>
-        <v>12.320408391259891</v>
+        <v>73.514398906383249</v>
       </c>
     </row>
     <row r="18" spans="39:50" x14ac:dyDescent="0.3">
       <c r="AT18" s="13">
         <f t="shared" si="1"/>
-        <v>482002.46679721895</v>
+        <v>2876050.898047219</v>
       </c>
       <c r="AU18">
         <f t="shared" si="3"/>
@@ -7971,14 +7985,14 @@
       </c>
       <c r="AX18">
         <f t="shared" si="2"/>
-        <v>9.8563267130079115</v>
+        <v>58.811519125106599</v>
       </c>
     </row>
     <row r="19" spans="39:50" x14ac:dyDescent="0.3">
       <c r="AO19" s="13"/>
       <c r="AT19" s="13">
         <f t="shared" si="1"/>
-        <v>482002.46679721895</v>
+        <v>2876050.898047219</v>
       </c>
       <c r="AU19">
         <f t="shared" si="3"/>
@@ -7992,7 +8006,7 @@
       </c>
       <c r="AX19">
         <f t="shared" si="2"/>
-        <v>8.2136055941732593</v>
+        <v>49.009599270922166</v>
       </c>
     </row>
     <row r="20" spans="39:50" x14ac:dyDescent="0.3">
@@ -8001,7 +8015,7 @@
       </c>
       <c r="AT20" s="13">
         <f t="shared" si="1"/>
-        <v>482002.46679721895</v>
+        <v>2876050.898047219</v>
       </c>
       <c r="AU20">
         <f t="shared" si="3"/>
@@ -8015,7 +8029,7 @@
       </c>
       <c r="AX20">
         <f t="shared" si="2"/>
-        <v>7.0402333664342232</v>
+        <v>42.008227946504718</v>
       </c>
     </row>
     <row r="21" spans="39:50" x14ac:dyDescent="0.3">
@@ -8024,7 +8038,7 @@
       </c>
       <c r="AT21" s="13">
         <f t="shared" si="1"/>
-        <v>482002.46679721895</v>
+        <v>2876050.898047219</v>
       </c>
       <c r="AU21">
         <f t="shared" si="3"/>
@@ -8038,13 +8052,13 @@
       </c>
       <c r="AX21">
         <f t="shared" si="2"/>
-        <v>6.1602041956299454</v>
+        <v>36.757199453191625</v>
       </c>
     </row>
     <row r="22" spans="39:50" x14ac:dyDescent="0.3">
       <c r="AT22" s="13">
         <f t="shared" si="1"/>
-        <v>482002.46679721895</v>
+        <v>2876050.898047219</v>
       </c>
       <c r="AU22">
         <f t="shared" si="3"/>
@@ -8058,7 +8072,7 @@
       </c>
       <c r="AX22">
         <f t="shared" si="2"/>
-        <v>5.4757370627821729</v>
+        <v>32.673066180614775</v>
       </c>
     </row>
     <row r="23" spans="39:50" x14ac:dyDescent="0.3">
@@ -8070,7 +8084,7 @@
       </c>
       <c r="AT23" s="13">
         <f t="shared" si="1"/>
-        <v>482002.46679721895</v>
+        <v>2876050.898047219</v>
       </c>
       <c r="AU23">
         <f t="shared" si="3"/>
@@ -8084,7 +8098,7 @@
       </c>
       <c r="AX23">
         <f t="shared" si="2"/>
-        <v>4.9281633565039558</v>
+        <v>29.4057595625533</v>
       </c>
     </row>
     <row r="24" spans="39:50" x14ac:dyDescent="0.3">
@@ -8093,7 +8107,7 @@
       </c>
       <c r="AT24" s="13">
         <f t="shared" si="1"/>
-        <v>482002.46679721895</v>
+        <v>2876050.898047219</v>
       </c>
       <c r="AU24">
         <f t="shared" si="3"/>
@@ -8107,7 +8121,7 @@
       </c>
       <c r="AX24">
         <f t="shared" si="2"/>
-        <v>4.4801485059126875</v>
+        <v>26.732508693230272</v>
       </c>
     </row>
     <row r="25" spans="39:50" x14ac:dyDescent="0.3">
@@ -8116,7 +8130,7 @@
       </c>
       <c r="AT25" s="13">
         <f t="shared" si="1"/>
-        <v>482002.46679721895</v>
+        <v>2876050.898047219</v>
       </c>
       <c r="AU25">
         <f t="shared" si="3"/>
@@ -8130,7 +8144,7 @@
       </c>
       <c r="AX25">
         <f t="shared" si="2"/>
-        <v>4.1068027970866297</v>
+        <v>24.504799635461083</v>
       </c>
     </row>
     <row r="26" spans="39:50" x14ac:dyDescent="0.3">
@@ -8139,7 +8153,7 @@
       </c>
       <c r="AT26" s="13">
         <f t="shared" si="1"/>
-        <v>482002.46679721895</v>
+        <v>2876050.898047219</v>
       </c>
       <c r="AU26">
         <f t="shared" si="3"/>
@@ -8153,7 +8167,7 @@
       </c>
       <c r="AX26">
         <f t="shared" si="2"/>
-        <v>3.7908948896184276</v>
+        <v>22.619815048117921</v>
       </c>
     </row>
     <row r="27" spans="39:50" x14ac:dyDescent="0.3">
@@ -8162,7 +8176,7 @@
       </c>
       <c r="AT27" s="13">
         <f t="shared" si="1"/>
-        <v>482002.46679721895</v>
+        <v>2876050.898047219</v>
       </c>
       <c r="AU27">
         <f t="shared" si="3"/>
@@ -8176,7 +8190,7 @@
       </c>
       <c r="AX27">
         <f t="shared" si="2"/>
-        <v>3.5201166832171116</v>
+        <v>21.004113973252359</v>
       </c>
     </row>
     <row r="28" spans="39:50" x14ac:dyDescent="0.3">
@@ -8185,7 +8199,7 @@
       </c>
       <c r="AT28" s="13">
         <f t="shared" si="1"/>
-        <v>482002.46679721895</v>
+        <v>2876050.898047219</v>
       </c>
       <c r="AU28">
         <f t="shared" si="3"/>
@@ -8199,28 +8213,11 @@
       </c>
       <c r="AX28">
         <f t="shared" si="2"/>
-        <v>3.285442237669304</v>
+        <v>19.603839708368866</v>
       </c>
     </row>
     <row r="29" spans="39:50" x14ac:dyDescent="0.3">
-      <c r="AT29" s="13">
-        <f t="shared" si="1"/>
-        <v>482002.46679721895</v>
-      </c>
-      <c r="AU29">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="AV29">
-        <v>997</v>
-      </c>
-      <c r="AW29">
-        <v>9.81</v>
-      </c>
-      <c r="AX29">
-        <f t="shared" si="2"/>
-        <v>3.0801020978149727</v>
-      </c>
+      <c r="AT29" s="13"/>
     </row>
     <row r="30" spans="39:50" x14ac:dyDescent="0.3">
       <c r="AM30" t="s">
@@ -8229,310 +8226,72 @@
       <c r="AO30" t="s">
         <v>199</v>
       </c>
-      <c r="AT30" s="13">
-        <f t="shared" si="1"/>
-        <v>482002.46679721895</v>
-      </c>
-      <c r="AU30">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="AV30">
-        <v>997</v>
-      </c>
-      <c r="AW30">
-        <v>9.81</v>
-      </c>
-      <c r="AX30">
-        <f t="shared" si="2"/>
-        <v>2.8989196214729152</v>
-      </c>
+      <c r="AT30" s="13"/>
     </row>
     <row r="31" spans="39:50" x14ac:dyDescent="0.3">
       <c r="AM31" s="54" t="s">
         <v>194</v>
       </c>
-      <c r="AT31" s="13">
-        <f t="shared" si="1"/>
-        <v>482002.46679721895</v>
-      </c>
-      <c r="AU31">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="AV31">
-        <v>997</v>
-      </c>
-      <c r="AW31">
-        <v>9.81</v>
-      </c>
-      <c r="AX31">
-        <f t="shared" si="2"/>
-        <v>2.7378685313910864</v>
-      </c>
+      <c r="AT31" s="13"/>
     </row>
     <row r="32" spans="39:50" x14ac:dyDescent="0.3">
       <c r="AM32" s="54" t="s">
         <v>195</v>
       </c>
-      <c r="AT32" s="13">
-        <f t="shared" si="1"/>
-        <v>482002.46679721895</v>
-      </c>
-      <c r="AU32">
-        <f t="shared" si="3"/>
-        <v>19</v>
-      </c>
-      <c r="AV32">
-        <v>997</v>
-      </c>
-      <c r="AW32">
-        <v>9.81</v>
-      </c>
-      <c r="AX32">
-        <f t="shared" si="2"/>
-        <v>2.5937701876336612</v>
-      </c>
-    </row>
-    <row r="33" spans="39:50" x14ac:dyDescent="0.3">
+      <c r="AT32" s="13"/>
+    </row>
+    <row r="33" spans="39:46" x14ac:dyDescent="0.3">
       <c r="AM33" s="54" t="s">
         <v>196</v>
       </c>
-      <c r="AT33" s="13">
-        <f t="shared" si="1"/>
-        <v>482002.46679721895</v>
-      </c>
-      <c r="AU33">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="AV33">
-        <v>997</v>
-      </c>
-      <c r="AW33">
-        <v>9.81</v>
-      </c>
-      <c r="AX33">
-        <f t="shared" si="2"/>
-        <v>2.4640816782519779</v>
-      </c>
-    </row>
-    <row r="34" spans="39:50" x14ac:dyDescent="0.3">
+      <c r="AT33" s="13"/>
+    </row>
+    <row r="34" spans="39:46" x14ac:dyDescent="0.3">
       <c r="AM34" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="AT34" s="13">
-        <f t="shared" si="1"/>
-        <v>482002.46679721895</v>
-      </c>
-      <c r="AU34">
-        <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
-      <c r="AV34">
-        <v>997</v>
-      </c>
-      <c r="AW34">
-        <v>9.81</v>
-      </c>
-      <c r="AX34">
-        <f t="shared" si="2"/>
-        <v>2.3467444554780741</v>
-      </c>
-    </row>
-    <row r="35" spans="39:50" x14ac:dyDescent="0.3">
-      <c r="AT35" s="13">
-        <f t="shared" si="1"/>
-        <v>482002.46679721895</v>
-      </c>
-      <c r="AU35">
-        <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-      <c r="AV35">
-        <v>997</v>
-      </c>
-      <c r="AW35">
-        <v>9.81</v>
-      </c>
-      <c r="AX35">
-        <f t="shared" si="2"/>
-        <v>2.2400742529563438</v>
-      </c>
-    </row>
-    <row r="36" spans="39:50" x14ac:dyDescent="0.3">
-      <c r="AT36" s="13">
-        <f t="shared" si="1"/>
-        <v>482002.46679721895</v>
-      </c>
-      <c r="AU36">
-        <f t="shared" si="3"/>
-        <v>23</v>
-      </c>
-      <c r="AV36">
-        <v>997</v>
-      </c>
-      <c r="AW36">
-        <v>9.81</v>
-      </c>
-      <c r="AX36">
-        <f t="shared" si="2"/>
-        <v>2.1426797202191112</v>
-      </c>
-    </row>
-    <row r="37" spans="39:50" x14ac:dyDescent="0.3">
-      <c r="AT37" s="13">
-        <f t="shared" si="1"/>
-        <v>482002.46679721895</v>
-      </c>
-      <c r="AU37">
-        <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="AV37">
-        <v>997</v>
-      </c>
-      <c r="AW37">
-        <v>9.81</v>
-      </c>
-      <c r="AX37">
-        <f t="shared" si="2"/>
-        <v>2.0534013985433148</v>
-      </c>
-    </row>
-    <row r="38" spans="39:50" x14ac:dyDescent="0.3">
-      <c r="AT38" s="13">
-        <f t="shared" si="1"/>
-        <v>482002.46679721895</v>
-      </c>
-      <c r="AU38">
-        <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="AV38">
-        <v>997</v>
-      </c>
-      <c r="AW38">
-        <v>9.81</v>
-      </c>
-      <c r="AX38">
-        <f t="shared" si="2"/>
-        <v>1.9712653426015823</v>
-      </c>
-    </row>
-    <row r="39" spans="39:50" x14ac:dyDescent="0.3">
-      <c r="AT39" s="13">
-        <f t="shared" si="1"/>
-        <v>482002.46679721895</v>
-      </c>
-      <c r="AU39">
-        <f t="shared" si="3"/>
-        <v>26</v>
-      </c>
-      <c r="AV39">
-        <v>997</v>
-      </c>
-      <c r="AW39">
-        <v>9.81</v>
-      </c>
-      <c r="AX39">
-        <f t="shared" si="2"/>
-        <v>1.8954474448092138</v>
-      </c>
-    </row>
-    <row r="40" spans="39:50" x14ac:dyDescent="0.3">
-      <c r="AT40" s="13">
-        <f t="shared" si="1"/>
-        <v>482002.46679721895</v>
-      </c>
-      <c r="AU40">
-        <f t="shared" si="3"/>
-        <v>27</v>
-      </c>
-      <c r="AV40">
-        <v>997</v>
-      </c>
-      <c r="AW40">
-        <v>9.81</v>
-      </c>
-      <c r="AX40">
-        <f t="shared" si="2"/>
-        <v>1.8252456875940577</v>
-      </c>
-    </row>
-    <row r="41" spans="39:50" x14ac:dyDescent="0.3">
-      <c r="AT41" s="13">
-        <f t="shared" si="1"/>
-        <v>482002.46679721895</v>
-      </c>
-      <c r="AU41">
-        <f t="shared" si="3"/>
-        <v>28</v>
-      </c>
-      <c r="AV41">
-        <v>997</v>
-      </c>
-      <c r="AW41">
-        <v>9.81</v>
-      </c>
-      <c r="AX41">
-        <f t="shared" si="2"/>
-        <v>1.7600583416085558</v>
-      </c>
-    </row>
-    <row r="42" spans="39:50" x14ac:dyDescent="0.3">
-      <c r="AT42" s="13">
-        <f t="shared" si="1"/>
-        <v>482002.46679721895</v>
-      </c>
-      <c r="AU42">
-        <f t="shared" si="3"/>
-        <v>29</v>
-      </c>
-      <c r="AV42">
-        <v>997</v>
-      </c>
-      <c r="AW42">
-        <v>9.81</v>
-      </c>
-      <c r="AX42">
-        <f t="shared" si="2"/>
-        <v>1.6993666746565366</v>
-      </c>
-    </row>
-    <row r="43" spans="39:50" x14ac:dyDescent="0.3">
-      <c r="AT43" s="13">
-        <f t="shared" si="1"/>
-        <v>482002.46679721895</v>
-      </c>
-      <c r="AU43">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="AV43">
-        <v>997</v>
-      </c>
-      <c r="AW43">
-        <v>9.81</v>
-      </c>
-      <c r="AX43">
-        <f t="shared" si="2"/>
-        <v>1.642721118834652</v>
-      </c>
-    </row>
-    <row r="44" spans="39:50" x14ac:dyDescent="0.3">
+      <c r="AT34" s="13"/>
+    </row>
+    <row r="35" spans="39:46" x14ac:dyDescent="0.3">
+      <c r="AT35" s="13"/>
+    </row>
+    <row r="36" spans="39:46" x14ac:dyDescent="0.3">
+      <c r="AT36" s="13"/>
+    </row>
+    <row r="37" spans="39:46" x14ac:dyDescent="0.3">
+      <c r="AT37" s="13"/>
+    </row>
+    <row r="38" spans="39:46" x14ac:dyDescent="0.3">
+      <c r="AT38" s="13"/>
+    </row>
+    <row r="39" spans="39:46" x14ac:dyDescent="0.3">
+      <c r="AT39" s="13"/>
+    </row>
+    <row r="40" spans="39:46" x14ac:dyDescent="0.3">
+      <c r="AT40" s="13"/>
+    </row>
+    <row r="41" spans="39:46" x14ac:dyDescent="0.3">
+      <c r="AT41" s="13"/>
+    </row>
+    <row r="42" spans="39:46" x14ac:dyDescent="0.3">
+      <c r="AT42" s="13"/>
+    </row>
+    <row r="43" spans="39:46" x14ac:dyDescent="0.3">
+      <c r="AT43" s="13"/>
+    </row>
+    <row r="44" spans="39:46" x14ac:dyDescent="0.3">
       <c r="AT44" s="13"/>
     </row>
-    <row r="45" spans="39:50" x14ac:dyDescent="0.3">
+    <row r="45" spans="39:46" x14ac:dyDescent="0.3">
       <c r="AT45" s="13"/>
     </row>
-    <row r="46" spans="39:50" x14ac:dyDescent="0.3">
+    <row r="46" spans="39:46" x14ac:dyDescent="0.3">
       <c r="AT46" s="13"/>
     </row>
-    <row r="47" spans="39:50" x14ac:dyDescent="0.3">
+    <row r="47" spans="39:46" x14ac:dyDescent="0.3">
       <c r="AT47" s="13"/>
     </row>
-    <row r="48" spans="39:50" x14ac:dyDescent="0.3">
+    <row r="48" spans="39:46" x14ac:dyDescent="0.3">
       <c r="AT48" s="13"/>
     </row>
     <row r="49" spans="46:46" x14ac:dyDescent="0.3">
@@ -8604,8 +8363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD6A58AD-E082-4AE4-BE32-52B2B8CD07A6}">
   <dimension ref="A1:AW43"/>
   <sheetViews>
-    <sheetView topLeftCell="AP29" zoomScale="146" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView topLeftCell="AH11" zoomScale="96" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="AR37" sqref="AR37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9680,7 +9439,7 @@
       </c>
       <c r="H11" s="21">
         <f>SUM('Verdieping 1'!M2:M3)*2.5*3.75</f>
-        <v>0</v>
+        <v>174375</v>
       </c>
       <c r="I11" s="22">
         <f>SUM('Verdieping 1'!M18:M19)*3.5*3.75</f>
@@ -9785,7 +9544,7 @@
       </c>
       <c r="AO11" s="9">
         <f t="shared" si="0"/>
-        <v>1218.75</v>
+        <v>175593.75</v>
       </c>
       <c r="AP11" s="9">
         <f t="shared" si="0"/>
@@ -9937,7 +9696,7 @@
       <c r="H14" s="13"/>
       <c r="I14">
         <f>SUM(F4:I11)</f>
-        <v>37913.417869465222</v>
+        <v>212288.41786946522</v>
       </c>
       <c r="M14">
         <f>SUM(M4:P11)</f>
@@ -9972,7 +9731,7 @@
       </c>
       <c r="AS14" s="13">
         <f>ABS(AR$16)</f>
-        <v>581271.92765997397</v>
+        <v>2291306.521409974</v>
       </c>
       <c r="AT14">
         <v>1</v>
@@ -9985,7 +9744,7 @@
       </c>
       <c r="AW14">
         <f>AS14/(AV14*AU14*AT14)</f>
-        <v>59.431293642392419</v>
+        <v>234.27126654274485</v>
       </c>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.3">
@@ -9994,15 +9753,15 @@
       </c>
       <c r="AP15">
         <f>SUM(I14,T14,AE14)</f>
-        <v>214425.76799946534</v>
+        <v>388800.76799946534</v>
       </c>
       <c r="AR15" s="51">
         <f>AP15*AO$21</f>
-        <v>2102798.4577519568</v>
+        <v>3812833.0515019568</v>
       </c>
       <c r="AS15" s="13">
         <f t="shared" ref="AS15:AS18" si="2">ABS(AR$16)</f>
-        <v>581271.92765997397</v>
+        <v>2291306.521409974</v>
       </c>
       <c r="AT15">
         <f>AT14+1</f>
@@ -10016,7 +9775,7 @@
       </c>
       <c r="AW15">
         <f t="shared" ref="AW15:AW18" si="3">AS15/(AV15*AU15*AT15)</f>
-        <v>29.715646821196209</v>
+        <v>117.13563327137243</v>
       </c>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.3">
@@ -10025,15 +9784,15 @@
       </c>
       <c r="AP16" s="1">
         <f>AP14-AP15</f>
-        <v>-59273.240878380893</v>
+        <v>-233648.24087838089</v>
       </c>
       <c r="AR16" s="50">
         <f>AP16*AO$21</f>
-        <v>-581271.92765997397</v>
+        <v>-2291306.521409974</v>
       </c>
       <c r="AS16" s="13">
         <f t="shared" si="2"/>
-        <v>581271.92765997397</v>
+        <v>2291306.521409974</v>
       </c>
       <c r="AT16">
         <f t="shared" ref="AT16:AT18" si="4">AT15+1</f>
@@ -10047,7 +9806,7 @@
       </c>
       <c r="AW16">
         <f t="shared" si="3"/>
-        <v>19.810431214130805</v>
+        <v>78.090422180914956</v>
       </c>
     </row>
     <row r="17" spans="39:49" x14ac:dyDescent="0.3">
@@ -10057,7 +9816,7 @@
       <c r="AR17" s="52"/>
       <c r="AS17" s="13">
         <f t="shared" si="2"/>
-        <v>581271.92765997397</v>
+        <v>2291306.521409974</v>
       </c>
       <c r="AT17">
         <f t="shared" si="4"/>
@@ -10071,14 +9830,14 @@
       </c>
       <c r="AW17">
         <f t="shared" si="3"/>
-        <v>14.857823410598105</v>
+        <v>58.567816635686214</v>
       </c>
     </row>
     <row r="18" spans="39:49" x14ac:dyDescent="0.3">
       <c r="AR18" s="52"/>
       <c r="AS18" s="13">
         <f t="shared" si="2"/>
-        <v>581271.92765997397</v>
+        <v>2291306.521409974</v>
       </c>
       <c r="AT18">
         <f t="shared" si="4"/>
@@ -10092,14 +9851,14 @@
       </c>
       <c r="AW18">
         <f t="shared" si="3"/>
-        <v>11.886258728478483</v>
+        <v>46.854253308548969</v>
       </c>
     </row>
     <row r="19" spans="39:49" x14ac:dyDescent="0.3">
       <c r="AO19" s="13"/>
       <c r="AS19" s="13">
         <f t="shared" ref="AS19:AS35" si="5">ABS(AR$16)</f>
-        <v>581271.92765997397</v>
+        <v>2291306.521409974</v>
       </c>
       <c r="AT19">
         <f t="shared" ref="AT19:AT35" si="6">AT18+1</f>
@@ -10113,7 +9872,7 @@
       </c>
       <c r="AW19">
         <f t="shared" ref="AW19:AW35" si="7">AS19/(AV19*AU19*AT19)</f>
-        <v>9.9052156070654025</v>
+        <v>39.045211090457478</v>
       </c>
     </row>
     <row r="20" spans="39:49" x14ac:dyDescent="0.3">
@@ -10122,7 +9881,7 @@
       </c>
       <c r="AS20" s="13">
         <f t="shared" si="5"/>
-        <v>581271.92765997397</v>
+        <v>2291306.521409974</v>
       </c>
       <c r="AT20">
         <f t="shared" si="6"/>
@@ -10136,7 +9895,7 @@
       </c>
       <c r="AW20">
         <f t="shared" si="7"/>
-        <v>8.4901848060560603</v>
+        <v>33.467323791820696</v>
       </c>
     </row>
     <row r="21" spans="39:49" x14ac:dyDescent="0.3">
@@ -10145,7 +9904,7 @@
       </c>
       <c r="AS21" s="13">
         <f t="shared" si="5"/>
-        <v>581271.92765997397</v>
+        <v>2291306.521409974</v>
       </c>
       <c r="AT21">
         <f t="shared" si="6"/>
@@ -10159,13 +9918,13 @@
       </c>
       <c r="AW21">
         <f t="shared" si="7"/>
-        <v>7.4289117052990523</v>
+        <v>29.283908317843107</v>
       </c>
     </row>
     <row r="22" spans="39:49" x14ac:dyDescent="0.3">
       <c r="AS22" s="13">
         <f t="shared" si="5"/>
-        <v>581271.92765997397</v>
+        <v>2291306.521409974</v>
       </c>
       <c r="AT22">
         <f t="shared" si="6"/>
@@ -10179,13 +9938,13 @@
       </c>
       <c r="AW22">
         <f t="shared" si="7"/>
-        <v>6.6034770713769344</v>
+        <v>26.030140726971648</v>
       </c>
     </row>
     <row r="23" spans="39:49" x14ac:dyDescent="0.3">
       <c r="AS23" s="13">
         <f t="shared" si="5"/>
-        <v>581271.92765997397</v>
+        <v>2291306.521409974</v>
       </c>
       <c r="AT23">
         <f t="shared" si="6"/>
@@ -10199,7 +9958,7 @@
       </c>
       <c r="AW23">
         <f t="shared" si="7"/>
-        <v>5.9431293642392413</v>
+        <v>23.427126654274485</v>
       </c>
     </row>
     <row r="24" spans="39:49" x14ac:dyDescent="0.3">
@@ -10211,7 +9970,7 @@
       </c>
       <c r="AS24" s="13">
         <f t="shared" si="5"/>
-        <v>581271.92765997397</v>
+        <v>2291306.521409974</v>
       </c>
       <c r="AT24">
         <f t="shared" si="6"/>
@@ -10225,7 +9984,7 @@
       </c>
       <c r="AW24">
         <f t="shared" si="7"/>
-        <v>5.4028448765811294</v>
+        <v>21.297387867522261</v>
       </c>
     </row>
     <row r="25" spans="39:49" x14ac:dyDescent="0.3">
@@ -10234,7 +9993,7 @@
       </c>
       <c r="AS25" s="13">
         <f t="shared" si="5"/>
-        <v>581271.92765997397</v>
+        <v>2291306.521409974</v>
       </c>
       <c r="AT25">
         <f t="shared" si="6"/>
@@ -10248,7 +10007,7 @@
       </c>
       <c r="AW25">
         <f t="shared" si="7"/>
-        <v>4.9526078035327012</v>
+        <v>19.522605545228739</v>
       </c>
     </row>
     <row r="26" spans="39:49" x14ac:dyDescent="0.3">
@@ -10257,7 +10016,7 @@
       </c>
       <c r="AS26" s="13">
         <f t="shared" si="5"/>
-        <v>581271.92765997397</v>
+        <v>2291306.521409974</v>
       </c>
       <c r="AT26">
         <f t="shared" si="6"/>
@@ -10271,7 +10030,7 @@
       </c>
       <c r="AW26">
         <f t="shared" si="7"/>
-        <v>4.5716379724917244</v>
+        <v>18.020866657134217</v>
       </c>
     </row>
     <row r="27" spans="39:49" x14ac:dyDescent="0.3">
@@ -10280,7 +10039,7 @@
       </c>
       <c r="AS27" s="13">
         <f t="shared" si="5"/>
-        <v>581271.92765997397</v>
+        <v>2291306.521409974</v>
       </c>
       <c r="AT27">
         <f t="shared" si="6"/>
@@ -10294,7 +10053,7 @@
       </c>
       <c r="AW27">
         <f t="shared" si="7"/>
-        <v>4.2450924030280301</v>
+        <v>16.733661895910348</v>
       </c>
     </row>
     <row r="28" spans="39:49" x14ac:dyDescent="0.3">
@@ -10303,7 +10062,7 @@
       </c>
       <c r="AS28" s="13">
         <f t="shared" si="5"/>
-        <v>581271.92765997397</v>
+        <v>2291306.521409974</v>
       </c>
       <c r="AT28">
         <f t="shared" si="6"/>
@@ -10317,51 +10076,17 @@
       </c>
       <c r="AW28">
         <f t="shared" si="7"/>
-        <v>3.9620862428261612</v>
+        <v>15.618084436182992</v>
       </c>
     </row>
     <row r="29" spans="39:49" x14ac:dyDescent="0.3">
       <c r="AM29" s="54" t="s">
         <v>204</v>
       </c>
-      <c r="AS29" s="13">
-        <f t="shared" si="5"/>
-        <v>581271.92765997397</v>
-      </c>
-      <c r="AT29">
-        <f t="shared" si="6"/>
-        <v>16</v>
-      </c>
-      <c r="AU29">
-        <v>997</v>
-      </c>
-      <c r="AV29">
-        <v>9.81</v>
-      </c>
-      <c r="AW29">
-        <f t="shared" si="7"/>
-        <v>3.7144558526495262</v>
-      </c>
+      <c r="AS29" s="13"/>
     </row>
     <row r="30" spans="39:49" x14ac:dyDescent="0.3">
-      <c r="AS30" s="13">
-        <f t="shared" si="5"/>
-        <v>581271.92765997397</v>
-      </c>
-      <c r="AT30">
-        <f t="shared" si="6"/>
-        <v>17</v>
-      </c>
-      <c r="AU30">
-        <v>997</v>
-      </c>
-      <c r="AV30">
-        <v>9.81</v>
-      </c>
-      <c r="AW30">
-        <f t="shared" si="7"/>
-        <v>3.4959584495524947</v>
-      </c>
+      <c r="AS30" s="13"/>
     </row>
     <row r="31" spans="39:49" x14ac:dyDescent="0.3">
       <c r="AM31" t="s">
@@ -10370,276 +10095,55 @@
       <c r="AN31" t="s">
         <v>199</v>
       </c>
-      <c r="AS31" s="13">
-        <f t="shared" si="5"/>
-        <v>581271.92765997397</v>
-      </c>
-      <c r="AT31">
-        <f t="shared" si="6"/>
-        <v>18</v>
-      </c>
-      <c r="AU31">
-        <v>997</v>
-      </c>
-      <c r="AV31">
-        <v>9.81</v>
-      </c>
-      <c r="AW31">
-        <f t="shared" si="7"/>
-        <v>3.3017385356884672</v>
-      </c>
+      <c r="AS31" s="13"/>
     </row>
     <row r="32" spans="39:49" x14ac:dyDescent="0.3">
       <c r="AM32" s="54" t="s">
         <v>194</v>
       </c>
-      <c r="AS32" s="13">
-        <f t="shared" si="5"/>
-        <v>581271.92765997397</v>
-      </c>
-      <c r="AT32">
-        <f t="shared" si="6"/>
-        <v>19</v>
-      </c>
-      <c r="AU32">
-        <v>997</v>
-      </c>
-      <c r="AV32">
-        <v>9.81</v>
-      </c>
-      <c r="AW32">
-        <f t="shared" si="7"/>
-        <v>3.1279628232838115</v>
-      </c>
-    </row>
-    <row r="33" spans="39:49" x14ac:dyDescent="0.3">
+      <c r="AS32" s="13"/>
+    </row>
+    <row r="33" spans="39:45" x14ac:dyDescent="0.3">
       <c r="AM33" s="54" t="s">
         <v>195</v>
       </c>
-      <c r="AS33" s="13">
-        <f t="shared" si="5"/>
-        <v>581271.92765997397</v>
-      </c>
-      <c r="AT33">
-        <f t="shared" si="6"/>
-        <v>20</v>
-      </c>
-      <c r="AU33">
-        <v>997</v>
-      </c>
-      <c r="AV33">
-        <v>9.81</v>
-      </c>
-      <c r="AW33">
-        <f t="shared" si="7"/>
-        <v>2.9715646821196207</v>
-      </c>
-    </row>
-    <row r="34" spans="39:49" x14ac:dyDescent="0.3">
+      <c r="AS33" s="13"/>
+    </row>
+    <row r="34" spans="39:45" x14ac:dyDescent="0.3">
       <c r="AM34" s="54" t="s">
         <v>196</v>
       </c>
-      <c r="AS34" s="13">
-        <f t="shared" si="5"/>
-        <v>581271.92765997397</v>
-      </c>
-      <c r="AT34">
-        <f t="shared" si="6"/>
-        <v>21</v>
-      </c>
-      <c r="AU34">
-        <v>997</v>
-      </c>
-      <c r="AV34">
-        <v>9.81</v>
-      </c>
-      <c r="AW34">
-        <f t="shared" si="7"/>
-        <v>2.8300616020186862</v>
-      </c>
-    </row>
-    <row r="35" spans="39:49" x14ac:dyDescent="0.3">
+      <c r="AS34" s="13"/>
+    </row>
+    <row r="35" spans="39:45" x14ac:dyDescent="0.3">
       <c r="AM35" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="AS35" s="13">
-        <f t="shared" si="5"/>
-        <v>581271.92765997397</v>
-      </c>
-      <c r="AT35">
-        <f t="shared" si="6"/>
-        <v>22</v>
-      </c>
-      <c r="AU35">
-        <v>997</v>
-      </c>
-      <c r="AV35">
-        <v>9.81</v>
-      </c>
-      <c r="AW35">
-        <f t="shared" si="7"/>
-        <v>2.7014224382905647</v>
-      </c>
-    </row>
-    <row r="36" spans="39:49" x14ac:dyDescent="0.3">
-      <c r="AS36" s="13">
-        <f t="shared" ref="AS36:AS43" si="8">ABS(AR$16)</f>
-        <v>581271.92765997397</v>
-      </c>
-      <c r="AT36">
-        <f t="shared" ref="AT36:AT43" si="9">AT35+1</f>
-        <v>23</v>
-      </c>
-      <c r="AU36">
-        <v>997</v>
-      </c>
-      <c r="AV36">
-        <v>9.81</v>
-      </c>
-      <c r="AW36">
-        <f t="shared" ref="AW36:AW43" si="10">AS36/(AV36*AU36*AT36)</f>
-        <v>2.5839692887996701</v>
-      </c>
-    </row>
-    <row r="37" spans="39:49" x14ac:dyDescent="0.3">
-      <c r="AS37" s="13">
-        <f t="shared" si="8"/>
-        <v>581271.92765997397</v>
-      </c>
-      <c r="AT37">
-        <f t="shared" si="9"/>
-        <v>24</v>
-      </c>
-      <c r="AU37">
-        <v>997</v>
-      </c>
-      <c r="AV37">
-        <v>9.81</v>
-      </c>
-      <c r="AW37">
-        <f t="shared" si="10"/>
-        <v>2.4763039017663506</v>
-      </c>
-    </row>
-    <row r="38" spans="39:49" x14ac:dyDescent="0.3">
-      <c r="AS38" s="13">
-        <f t="shared" si="8"/>
-        <v>581271.92765997397</v>
-      </c>
-      <c r="AT38">
-        <f t="shared" si="9"/>
-        <v>25</v>
-      </c>
-      <c r="AU38">
-        <v>997</v>
-      </c>
-      <c r="AV38">
-        <v>9.81</v>
-      </c>
-      <c r="AW38">
-        <f t="shared" si="10"/>
-        <v>2.3772517456956965</v>
-      </c>
-    </row>
-    <row r="39" spans="39:49" x14ac:dyDescent="0.3">
-      <c r="AS39" s="13">
-        <f t="shared" si="8"/>
-        <v>581271.92765997397</v>
-      </c>
-      <c r="AT39">
-        <f t="shared" si="9"/>
-        <v>26</v>
-      </c>
-      <c r="AU39">
-        <v>997</v>
-      </c>
-      <c r="AV39">
-        <v>9.81</v>
-      </c>
-      <c r="AW39">
-        <f t="shared" si="10"/>
-        <v>2.2858189862458622</v>
-      </c>
-    </row>
-    <row r="40" spans="39:49" x14ac:dyDescent="0.3">
-      <c r="AS40" s="13">
-        <f t="shared" si="8"/>
-        <v>581271.92765997397</v>
-      </c>
-      <c r="AT40">
-        <f t="shared" si="9"/>
-        <v>27</v>
-      </c>
-      <c r="AU40">
-        <v>997</v>
-      </c>
-      <c r="AV40">
-        <v>9.81</v>
-      </c>
-      <c r="AW40">
-        <f t="shared" si="10"/>
-        <v>2.2011590237923113</v>
-      </c>
-    </row>
-    <row r="41" spans="39:49" x14ac:dyDescent="0.3">
-      <c r="AS41" s="13">
-        <f t="shared" si="8"/>
-        <v>581271.92765997397</v>
-      </c>
-      <c r="AT41">
-        <f t="shared" si="9"/>
-        <v>28</v>
-      </c>
-      <c r="AU41">
-        <v>997</v>
-      </c>
-      <c r="AV41">
-        <v>9.81</v>
-      </c>
-      <c r="AW41">
-        <f t="shared" si="10"/>
-        <v>2.1225462015140151</v>
-      </c>
-    </row>
-    <row r="42" spans="39:49" x14ac:dyDescent="0.3">
-      <c r="AS42" s="13">
-        <f t="shared" si="8"/>
-        <v>581271.92765997397</v>
-      </c>
-      <c r="AT42">
-        <f t="shared" si="9"/>
-        <v>29</v>
-      </c>
-      <c r="AU42">
-        <v>997</v>
-      </c>
-      <c r="AV42">
-        <v>9.81</v>
-      </c>
-      <c r="AW42">
-        <f t="shared" si="10"/>
-        <v>2.0493549531859454</v>
-      </c>
-    </row>
-    <row r="43" spans="39:49" x14ac:dyDescent="0.3">
-      <c r="AS43" s="13">
-        <f t="shared" si="8"/>
-        <v>581271.92765997397</v>
-      </c>
-      <c r="AT43">
-        <f t="shared" si="9"/>
-        <v>30</v>
-      </c>
-      <c r="AU43">
-        <v>997</v>
-      </c>
-      <c r="AV43">
-        <v>9.81</v>
-      </c>
-      <c r="AW43">
-        <f t="shared" si="10"/>
-        <v>1.9810431214130806</v>
-      </c>
+      <c r="AS35" s="13"/>
+    </row>
+    <row r="36" spans="39:45" x14ac:dyDescent="0.3">
+      <c r="AS36" s="13"/>
+    </row>
+    <row r="37" spans="39:45" x14ac:dyDescent="0.3">
+      <c r="AS37" s="13"/>
+    </row>
+    <row r="38" spans="39:45" x14ac:dyDescent="0.3">
+      <c r="AS38" s="13"/>
+    </row>
+    <row r="39" spans="39:45" x14ac:dyDescent="0.3">
+      <c r="AS39" s="13"/>
+    </row>
+    <row r="40" spans="39:45" x14ac:dyDescent="0.3">
+      <c r="AS40" s="13"/>
+    </row>
+    <row r="41" spans="39:45" x14ac:dyDescent="0.3">
+      <c r="AS41" s="13"/>
+    </row>
+    <row r="42" spans="39:45" x14ac:dyDescent="0.3">
+      <c r="AS42" s="13"/>
+    </row>
+    <row r="43" spans="39:45" x14ac:dyDescent="0.3">
+      <c r="AS43" s="13"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:I11 M4:T11 X4:AE11">
@@ -10674,8 +10178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9D3020A-0241-451B-89B2-1C903AEFDCDE}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10805,6 +10309,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004CEF96245D7C1E4BABEEA03D7ECE19C0" ma:contentTypeVersion="4" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="f72c6b3f2ff96562f14ae8449ff33f0d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0714667c-0a60-4810-ab6f-84607c76cfd4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f69e43b74bb03b9c993e12ef8729ea88" ns2:_="">
     <xsd:import namespace="0714667c-0a60-4810-ab6f-84607c76cfd4"/>
@@ -10948,22 +10467,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49A34E54-66C2-4D18-8E75-6202DF656FAF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A23B4FB9-F351-4206-B0AD-FF7C8B58859B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{340E62E5-999B-4585-922A-359AE6FF5DF0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10979,21 +10500,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A23B4FB9-F351-4206-B0AD-FF7C8B58859B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49A34E54-66C2-4D18-8E75-6202DF656FAF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Opleverset/Extra documenten/aangepast met berkenign grote tank Scriptie Jelle Willemen-Floating Farm - Bijlage Rekenmodel gewichtsverdeling.xlsx
+++ b/Opleverset/Extra documenten/aangepast met berkenign grote tank Scriptie Jelle Willemen-Floating Farm - Bijlage Rekenmodel gewichtsverdeling.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyril\Desktop\Project-5-6---Floating-Farm\Opleverset\Extra documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1651A19D-6862-4871-A728-DFFCA7631369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1848AF-F974-4BA3-8D8E-19483DD4E947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="747" firstSheet="2" activeTab="5" xr2:uid="{C9B0FE52-629E-47BA-9955-0395F0E7E877}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="747" firstSheet="1" activeTab="1" xr2:uid="{C9B0FE52-629E-47BA-9955-0395F0E7E877}"/>
   </bookViews>
   <sheets>
     <sheet name="Toelichting model" sheetId="1" r:id="rId1"/>
@@ -1820,8 +1820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CFD6690-25F0-4599-9992-736BE7C8D663}">
   <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1895,21 +1895,10 @@
       <c r="K2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="M2" s="1">
-        <f>600*31</f>
-        <v>18600</v>
-      </c>
-      <c r="N2" s="1">
-        <f>M2</f>
-        <v>18600</v>
-      </c>
-      <c r="O2" s="1">
-        <f>M2</f>
-        <v>18600</v>
-      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B3" s="11" t="s">
@@ -2690,10 +2679,21 @@
       <c r="F40" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="2"/>
+      <c r="G40" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="H40" s="1">
+        <f>600*31</f>
+        <v>18600</v>
+      </c>
+      <c r="I40" s="1">
+        <f>H40</f>
+        <v>18600</v>
+      </c>
+      <c r="J40" s="1">
+        <f>I40</f>
+        <v>18600</v>
+      </c>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
@@ -5508,7 +5508,7 @@
   <dimension ref="A1:AF12"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="90" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6002,7 +6002,7 @@
       </c>
       <c r="G8" s="9">
         <f>SUM('Verdieping 1'!H40:H41)</f>
-        <v>0</v>
+        <v>18600</v>
       </c>
       <c r="H8" s="28">
         <f>SUM('Verdieping 1'!M8:M9)</f>
@@ -6327,7 +6327,7 @@
       </c>
       <c r="H11" s="21">
         <f>SUM('Verdieping 1'!M2:M3)</f>
-        <v>18600</v>
+        <v>0</v>
       </c>
       <c r="I11" s="22">
         <f>SUM('Verdieping 1'!M18:M19)</f>
@@ -6510,8 +6510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{221C7ABC-5C4D-45CF-B17C-4450D6AC5256}">
   <dimension ref="A1:AX60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK17" zoomScale="96" workbookViewId="0">
-      <selection activeCell="AX28" sqref="AX28"/>
+    <sheetView topLeftCell="AE4" zoomScale="96" workbookViewId="0">
+      <selection activeCell="AO10" sqref="AO10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7166,7 +7166,7 @@
       </c>
       <c r="G8" s="9">
         <f>SUM('Verdieping 1'!H40:H41)*0.5*3.75</f>
-        <v>0</v>
+        <v>34875</v>
       </c>
       <c r="H8" s="28">
         <f>SUM('Verdieping 1'!M8:M9)*0.5*3.75</f>
@@ -7271,7 +7271,7 @@
       </c>
       <c r="AN8" s="16">
         <f t="shared" si="0"/>
-        <v>281.25</v>
+        <v>35156.25</v>
       </c>
       <c r="AO8" s="16">
         <f t="shared" si="0"/>
@@ -7596,7 +7596,7 @@
       </c>
       <c r="H11" s="21">
         <f>SUM('Verdieping 1'!M2:M3)*3.5*3.75</f>
-        <v>244125</v>
+        <v>0</v>
       </c>
       <c r="I11" s="22">
         <f>SUM('Verdieping 1'!M18:M19)*3.5*3.75</f>
@@ -7604,7 +7604,7 @@
       </c>
       <c r="K11">
         <f>SUM(B8:I11)</f>
-        <v>290404.6875</v>
+        <v>81154.6875</v>
       </c>
       <c r="L11" s="9">
         <v>1</v>
@@ -7713,7 +7713,7 @@
       </c>
       <c r="AO11" s="9">
         <f t="shared" si="0"/>
-        <v>245831.25</v>
+        <v>1706.25</v>
       </c>
       <c r="AP11" s="9">
         <f t="shared" si="0"/>
@@ -7867,7 +7867,7 @@
       </c>
       <c r="AT14" s="13">
         <f>ABS(AR$16)</f>
-        <v>2876050.898047219</v>
+        <v>824009.38554721896</v>
       </c>
       <c r="AU14">
         <v>1</v>
@@ -7880,7 +7880,7 @@
       </c>
       <c r="AX14">
         <f>AT14/(AW14*AV14*AU14)</f>
-        <v>294.057595625533</v>
+        <v>84.249628145110051</v>
       </c>
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.3">
@@ -7889,15 +7889,15 @@
       </c>
       <c r="AP15">
         <f>SUM(K11,V11,AG11)</f>
-        <v>433836.328125</v>
+        <v>224586.328125</v>
       </c>
       <c r="AR15" s="51">
         <f>AP15*AO$21</f>
-        <v>4254481.0272070309</v>
+        <v>2202439.5147070312</v>
       </c>
       <c r="AT15" s="13">
-        <f t="shared" ref="AT15:AT43" si="1">ABS(AR$16)</f>
-        <v>2876050.898047219</v>
+        <f t="shared" ref="AT15:AT28" si="1">ABS(AR$16)</f>
+        <v>824009.38554721896</v>
       </c>
       <c r="AU15">
         <f>AU14+1</f>
@@ -7910,8 +7910,8 @@
         <v>9.81</v>
       </c>
       <c r="AX15">
-        <f t="shared" ref="AX15:AX43" si="2">AT15/(AW15*AV15*AU15)</f>
-        <v>147.0287978127665</v>
+        <f t="shared" ref="AX15:AX28" si="2">AT15/(AW15*AV15*AU15)</f>
+        <v>42.124814072555026</v>
       </c>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.3">
@@ -7920,18 +7920,18 @@
       </c>
       <c r="AP16" s="1">
         <f>AP14-AP15</f>
-        <v>-293275.573008848</v>
+        <v>-84025.573008847976</v>
       </c>
       <c r="AR16" s="50">
         <f>AP16*AO$21</f>
-        <v>-2876050.898047219</v>
+        <v>-824009.38554721896</v>
       </c>
       <c r="AT16" s="13">
         <f t="shared" si="1"/>
-        <v>2876050.898047219</v>
+        <v>824009.38554721896</v>
       </c>
       <c r="AU16">
-        <f t="shared" ref="AU16:AU43" si="3">AU15+1</f>
+        <f t="shared" ref="AU16:AU28" si="3">AU15+1</f>
         <v>3</v>
       </c>
       <c r="AV16">
@@ -7942,7 +7942,7 @@
       </c>
       <c r="AX16">
         <f t="shared" si="2"/>
-        <v>98.019198541844332</v>
+        <v>28.083209381703348</v>
       </c>
     </row>
     <row r="17" spans="39:50" x14ac:dyDescent="0.3">
@@ -7951,7 +7951,7 @@
       </c>
       <c r="AT17" s="13">
         <f t="shared" si="1"/>
-        <v>2876050.898047219</v>
+        <v>824009.38554721896</v>
       </c>
       <c r="AU17">
         <f t="shared" si="3"/>
@@ -7965,13 +7965,13 @@
       </c>
       <c r="AX17">
         <f t="shared" si="2"/>
-        <v>73.514398906383249</v>
+        <v>21.062407036277513</v>
       </c>
     </row>
     <row r="18" spans="39:50" x14ac:dyDescent="0.3">
       <c r="AT18" s="13">
         <f t="shared" si="1"/>
-        <v>2876050.898047219</v>
+        <v>824009.38554721896</v>
       </c>
       <c r="AU18">
         <f t="shared" si="3"/>
@@ -7985,14 +7985,14 @@
       </c>
       <c r="AX18">
         <f t="shared" si="2"/>
-        <v>58.811519125106599</v>
+        <v>16.84992562902201</v>
       </c>
     </row>
     <row r="19" spans="39:50" x14ac:dyDescent="0.3">
       <c r="AO19" s="13"/>
       <c r="AT19" s="13">
         <f t="shared" si="1"/>
-        <v>2876050.898047219</v>
+        <v>824009.38554721896</v>
       </c>
       <c r="AU19">
         <f t="shared" si="3"/>
@@ -8006,7 +8006,7 @@
       </c>
       <c r="AX19">
         <f t="shared" si="2"/>
-        <v>49.009599270922166</v>
+        <v>14.041604690851674</v>
       </c>
     </row>
     <row r="20" spans="39:50" x14ac:dyDescent="0.3">
@@ -8015,7 +8015,7 @@
       </c>
       <c r="AT20" s="13">
         <f t="shared" si="1"/>
-        <v>2876050.898047219</v>
+        <v>824009.38554721896</v>
       </c>
       <c r="AU20">
         <f t="shared" si="3"/>
@@ -8029,7 +8029,7 @@
       </c>
       <c r="AX20">
         <f t="shared" si="2"/>
-        <v>42.008227946504718</v>
+        <v>12.03566116358715</v>
       </c>
     </row>
     <row r="21" spans="39:50" x14ac:dyDescent="0.3">
@@ -8038,7 +8038,7 @@
       </c>
       <c r="AT21" s="13">
         <f t="shared" si="1"/>
-        <v>2876050.898047219</v>
+        <v>824009.38554721896</v>
       </c>
       <c r="AU21">
         <f t="shared" si="3"/>
@@ -8052,13 +8052,13 @@
       </c>
       <c r="AX21">
         <f t="shared" si="2"/>
-        <v>36.757199453191625</v>
+        <v>10.531203518138756</v>
       </c>
     </row>
     <row r="22" spans="39:50" x14ac:dyDescent="0.3">
       <c r="AT22" s="13">
         <f t="shared" si="1"/>
-        <v>2876050.898047219</v>
+        <v>824009.38554721896</v>
       </c>
       <c r="AU22">
         <f t="shared" si="3"/>
@@ -8072,7 +8072,7 @@
       </c>
       <c r="AX22">
         <f t="shared" si="2"/>
-        <v>32.673066180614775</v>
+        <v>9.361069793901116</v>
       </c>
     </row>
     <row r="23" spans="39:50" x14ac:dyDescent="0.3">
@@ -8084,7 +8084,7 @@
       </c>
       <c r="AT23" s="13">
         <f t="shared" si="1"/>
-        <v>2876050.898047219</v>
+        <v>824009.38554721896</v>
       </c>
       <c r="AU23">
         <f t="shared" si="3"/>
@@ -8098,7 +8098,7 @@
       </c>
       <c r="AX23">
         <f t="shared" si="2"/>
-        <v>29.4057595625533</v>
+        <v>8.4249628145110051</v>
       </c>
     </row>
     <row r="24" spans="39:50" x14ac:dyDescent="0.3">
@@ -8107,7 +8107,7 @@
       </c>
       <c r="AT24" s="13">
         <f t="shared" si="1"/>
-        <v>2876050.898047219</v>
+        <v>824009.38554721896</v>
       </c>
       <c r="AU24">
         <f t="shared" si="3"/>
@@ -8121,7 +8121,7 @@
       </c>
       <c r="AX24">
         <f t="shared" si="2"/>
-        <v>26.732508693230272</v>
+        <v>7.6590571041009143</v>
       </c>
     </row>
     <row r="25" spans="39:50" x14ac:dyDescent="0.3">
@@ -8130,7 +8130,7 @@
       </c>
       <c r="AT25" s="13">
         <f t="shared" si="1"/>
-        <v>2876050.898047219</v>
+        <v>824009.38554721896</v>
       </c>
       <c r="AU25">
         <f t="shared" si="3"/>
@@ -8144,7 +8144,7 @@
       </c>
       <c r="AX25">
         <f t="shared" si="2"/>
-        <v>24.504799635461083</v>
+        <v>7.020802345425837</v>
       </c>
     </row>
     <row r="26" spans="39:50" x14ac:dyDescent="0.3">
@@ -8153,7 +8153,7 @@
       </c>
       <c r="AT26" s="13">
         <f t="shared" si="1"/>
-        <v>2876050.898047219</v>
+        <v>824009.38554721896</v>
       </c>
       <c r="AU26">
         <f t="shared" si="3"/>
@@ -8167,7 +8167,7 @@
       </c>
       <c r="AX26">
         <f t="shared" si="2"/>
-        <v>22.619815048117921</v>
+        <v>6.4807406265469263</v>
       </c>
     </row>
     <row r="27" spans="39:50" x14ac:dyDescent="0.3">
@@ -8176,7 +8176,7 @@
       </c>
       <c r="AT27" s="13">
         <f t="shared" si="1"/>
-        <v>2876050.898047219</v>
+        <v>824009.38554721896</v>
       </c>
       <c r="AU27">
         <f t="shared" si="3"/>
@@ -8190,7 +8190,7 @@
       </c>
       <c r="AX27">
         <f t="shared" si="2"/>
-        <v>21.004113973252359</v>
+        <v>6.0178305817935751</v>
       </c>
     </row>
     <row r="28" spans="39:50" x14ac:dyDescent="0.3">
@@ -8199,7 +8199,7 @@
       </c>
       <c r="AT28" s="13">
         <f t="shared" si="1"/>
-        <v>2876050.898047219</v>
+        <v>824009.38554721896</v>
       </c>
       <c r="AU28">
         <f t="shared" si="3"/>
@@ -8213,7 +8213,7 @@
       </c>
       <c r="AX28">
         <f t="shared" si="2"/>
-        <v>19.603839708368866</v>
+        <v>5.6166418763406698</v>
       </c>
     </row>
     <row r="29" spans="39:50" x14ac:dyDescent="0.3">
@@ -9009,7 +9009,7 @@
       </c>
       <c r="G8" s="9">
         <f>SUM('Verdieping 1'!H40:H41)*1.5*3.75</f>
-        <v>0</v>
+        <v>104625</v>
       </c>
       <c r="H8" s="28">
         <f>SUM('Verdieping 1'!M8:M9)*2.5*3.75</f>
@@ -9114,7 +9114,7 @@
       </c>
       <c r="AN8" s="9">
         <f t="shared" si="0"/>
-        <v>843.75</v>
+        <v>105468.75</v>
       </c>
       <c r="AO8" s="9">
         <f t="shared" si="0"/>
@@ -9439,7 +9439,7 @@
       </c>
       <c r="H11" s="21">
         <f>SUM('Verdieping 1'!M2:M3)*2.5*3.75</f>
-        <v>174375</v>
+        <v>0</v>
       </c>
       <c r="I11" s="22">
         <f>SUM('Verdieping 1'!M18:M19)*3.5*3.75</f>
@@ -9544,7 +9544,7 @@
       </c>
       <c r="AO11" s="9">
         <f t="shared" si="0"/>
-        <v>175593.75</v>
+        <v>1218.75</v>
       </c>
       <c r="AP11" s="9">
         <f t="shared" si="0"/>
@@ -9696,7 +9696,7 @@
       <c r="H14" s="13"/>
       <c r="I14">
         <f>SUM(F4:I11)</f>
-        <v>212288.41786946522</v>
+        <v>142538.41786946522</v>
       </c>
       <c r="M14">
         <f>SUM(M4:P11)</f>
@@ -9731,7 +9731,7 @@
       </c>
       <c r="AS14" s="13">
         <f>ABS(AR$16)</f>
-        <v>2291306.521409974</v>
+        <v>1607292.6839099738</v>
       </c>
       <c r="AT14">
         <v>1</v>
@@ -9744,7 +9744,7 @@
       </c>
       <c r="AW14">
         <f>AS14/(AV14*AU14*AT14)</f>
-        <v>234.27126654274485</v>
+        <v>164.33527738260386</v>
       </c>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.3">
@@ -9753,15 +9753,15 @@
       </c>
       <c r="AP15">
         <f>SUM(I14,T14,AE14)</f>
-        <v>388800.76799946534</v>
+        <v>319050.76799946534</v>
       </c>
       <c r="AR15" s="51">
         <f>AP15*AO$21</f>
-        <v>3812833.0515019568</v>
+        <v>3128819.2140019569</v>
       </c>
       <c r="AS15" s="13">
         <f t="shared" ref="AS15:AS18" si="2">ABS(AR$16)</f>
-        <v>2291306.521409974</v>
+        <v>1607292.6839099738</v>
       </c>
       <c r="AT15">
         <f>AT14+1</f>
@@ -9775,7 +9775,7 @@
       </c>
       <c r="AW15">
         <f t="shared" ref="AW15:AW18" si="3">AS15/(AV15*AU15*AT15)</f>
-        <v>117.13563327137243</v>
+        <v>82.167638691301931</v>
       </c>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.3">
@@ -9784,15 +9784,15 @@
       </c>
       <c r="AP16" s="1">
         <f>AP14-AP15</f>
-        <v>-233648.24087838089</v>
+        <v>-163898.24087838089</v>
       </c>
       <c r="AR16" s="50">
         <f>AP16*AO$21</f>
-        <v>-2291306.521409974</v>
+        <v>-1607292.6839099738</v>
       </c>
       <c r="AS16" s="13">
         <f t="shared" si="2"/>
-        <v>2291306.521409974</v>
+        <v>1607292.6839099738</v>
       </c>
       <c r="AT16">
         <f t="shared" ref="AT16:AT18" si="4">AT15+1</f>
@@ -9806,7 +9806,7 @@
       </c>
       <c r="AW16">
         <f t="shared" si="3"/>
-        <v>78.090422180914956</v>
+        <v>54.77842579420129</v>
       </c>
     </row>
     <row r="17" spans="39:49" x14ac:dyDescent="0.3">
@@ -9816,7 +9816,7 @@
       <c r="AR17" s="52"/>
       <c r="AS17" s="13">
         <f t="shared" si="2"/>
-        <v>2291306.521409974</v>
+        <v>1607292.6839099738</v>
       </c>
       <c r="AT17">
         <f t="shared" si="4"/>
@@ -9830,14 +9830,14 @@
       </c>
       <c r="AW17">
         <f t="shared" si="3"/>
-        <v>58.567816635686214</v>
+        <v>41.083819345650966</v>
       </c>
     </row>
     <row r="18" spans="39:49" x14ac:dyDescent="0.3">
       <c r="AR18" s="52"/>
       <c r="AS18" s="13">
         <f t="shared" si="2"/>
-        <v>2291306.521409974</v>
+        <v>1607292.6839099738</v>
       </c>
       <c r="AT18">
         <f t="shared" si="4"/>
@@ -9851,17 +9851,17 @@
       </c>
       <c r="AW18">
         <f t="shared" si="3"/>
-        <v>46.854253308548969</v>
+        <v>32.867055476520775</v>
       </c>
     </row>
     <row r="19" spans="39:49" x14ac:dyDescent="0.3">
       <c r="AO19" s="13"/>
       <c r="AS19" s="13">
-        <f t="shared" ref="AS19:AS35" si="5">ABS(AR$16)</f>
-        <v>2291306.521409974</v>
+        <f t="shared" ref="AS19:AS28" si="5">ABS(AR$16)</f>
+        <v>1607292.6839099738</v>
       </c>
       <c r="AT19">
-        <f t="shared" ref="AT19:AT35" si="6">AT18+1</f>
+        <f t="shared" ref="AT19:AT28" si="6">AT18+1</f>
         <v>6</v>
       </c>
       <c r="AU19">
@@ -9871,8 +9871,8 @@
         <v>9.81</v>
       </c>
       <c r="AW19">
-        <f t="shared" ref="AW19:AW35" si="7">AS19/(AV19*AU19*AT19)</f>
-        <v>39.045211090457478</v>
+        <f t="shared" ref="AW19:AW28" si="7">AS19/(AV19*AU19*AT19)</f>
+        <v>27.389212897100645</v>
       </c>
     </row>
     <row r="20" spans="39:49" x14ac:dyDescent="0.3">
@@ -9881,7 +9881,7 @@
       </c>
       <c r="AS20" s="13">
         <f t="shared" si="5"/>
-        <v>2291306.521409974</v>
+        <v>1607292.6839099738</v>
       </c>
       <c r="AT20">
         <f t="shared" si="6"/>
@@ -9895,7 +9895,7 @@
       </c>
       <c r="AW20">
         <f t="shared" si="7"/>
-        <v>33.467323791820696</v>
+        <v>23.476468197514841</v>
       </c>
     </row>
     <row r="21" spans="39:49" x14ac:dyDescent="0.3">
@@ -9904,7 +9904,7 @@
       </c>
       <c r="AS21" s="13">
         <f t="shared" si="5"/>
-        <v>2291306.521409974</v>
+        <v>1607292.6839099738</v>
       </c>
       <c r="AT21">
         <f t="shared" si="6"/>
@@ -9918,13 +9918,13 @@
       </c>
       <c r="AW21">
         <f t="shared" si="7"/>
-        <v>29.283908317843107</v>
+        <v>20.541909672825483</v>
       </c>
     </row>
     <row r="22" spans="39:49" x14ac:dyDescent="0.3">
       <c r="AS22" s="13">
         <f t="shared" si="5"/>
-        <v>2291306.521409974</v>
+        <v>1607292.6839099738</v>
       </c>
       <c r="AT22">
         <f t="shared" si="6"/>
@@ -9938,13 +9938,13 @@
       </c>
       <c r="AW22">
         <f t="shared" si="7"/>
-        <v>26.030140726971648</v>
+        <v>18.259475264733762</v>
       </c>
     </row>
     <row r="23" spans="39:49" x14ac:dyDescent="0.3">
       <c r="AS23" s="13">
         <f t="shared" si="5"/>
-        <v>2291306.521409974</v>
+        <v>1607292.6839099738</v>
       </c>
       <c r="AT23">
         <f t="shared" si="6"/>
@@ -9958,7 +9958,7 @@
       </c>
       <c r="AW23">
         <f t="shared" si="7"/>
-        <v>23.427126654274485</v>
+        <v>16.433527738260388</v>
       </c>
     </row>
     <row r="24" spans="39:49" x14ac:dyDescent="0.3">
@@ -9970,7 +9970,7 @@
       </c>
       <c r="AS24" s="13">
         <f t="shared" si="5"/>
-        <v>2291306.521409974</v>
+        <v>1607292.6839099738</v>
       </c>
       <c r="AT24">
         <f t="shared" si="6"/>
@@ -9984,7 +9984,7 @@
       </c>
       <c r="AW24">
         <f t="shared" si="7"/>
-        <v>21.297387867522261</v>
+        <v>14.939570671145807</v>
       </c>
     </row>
     <row r="25" spans="39:49" x14ac:dyDescent="0.3">
@@ -9993,7 +9993,7 @@
       </c>
       <c r="AS25" s="13">
         <f t="shared" si="5"/>
-        <v>2291306.521409974</v>
+        <v>1607292.6839099738</v>
       </c>
       <c r="AT25">
         <f t="shared" si="6"/>
@@ -10007,7 +10007,7 @@
       </c>
       <c r="AW25">
         <f t="shared" si="7"/>
-        <v>19.522605545228739</v>
+        <v>13.694606448550322</v>
       </c>
     </row>
     <row r="26" spans="39:49" x14ac:dyDescent="0.3">
@@ -10016,7 +10016,7 @@
       </c>
       <c r="AS26" s="13">
         <f t="shared" si="5"/>
-        <v>2291306.521409974</v>
+        <v>1607292.6839099738</v>
       </c>
       <c r="AT26">
         <f t="shared" si="6"/>
@@ -10030,7 +10030,7 @@
       </c>
       <c r="AW26">
         <f t="shared" si="7"/>
-        <v>18.020866657134217</v>
+        <v>12.64117518327722</v>
       </c>
     </row>
     <row r="27" spans="39:49" x14ac:dyDescent="0.3">
@@ -10039,7 +10039,7 @@
       </c>
       <c r="AS27" s="13">
         <f t="shared" si="5"/>
-        <v>2291306.521409974</v>
+        <v>1607292.6839099738</v>
       </c>
       <c r="AT27">
         <f t="shared" si="6"/>
@@ -10053,7 +10053,7 @@
       </c>
       <c r="AW27">
         <f t="shared" si="7"/>
-        <v>16.733661895910348</v>
+        <v>11.73823409875742</v>
       </c>
     </row>
     <row r="28" spans="39:49" x14ac:dyDescent="0.3">
@@ -10062,7 +10062,7 @@
       </c>
       <c r="AS28" s="13">
         <f t="shared" si="5"/>
-        <v>2291306.521409974</v>
+        <v>1607292.6839099738</v>
       </c>
       <c r="AT28">
         <f t="shared" si="6"/>
@@ -10076,7 +10076,7 @@
       </c>
       <c r="AW28">
         <f t="shared" si="7"/>
-        <v>15.618084436182992</v>
+        <v>10.955685158840257</v>
       </c>
     </row>
     <row r="29" spans="39:49" x14ac:dyDescent="0.3">
@@ -10309,21 +10309,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004CEF96245D7C1E4BABEEA03D7ECE19C0" ma:contentTypeVersion="4" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="f72c6b3f2ff96562f14ae8449ff33f0d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0714667c-0a60-4810-ab6f-84607c76cfd4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f69e43b74bb03b9c993e12ef8729ea88" ns2:_="">
     <xsd:import namespace="0714667c-0a60-4810-ab6f-84607c76cfd4"/>
@@ -10467,24 +10452,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49A34E54-66C2-4D18-8E75-6202DF656FAF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A23B4FB9-F351-4206-B0AD-FF7C8B58859B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{340E62E5-999B-4585-922A-359AE6FF5DF0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10500,4 +10483,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A23B4FB9-F351-4206-B0AD-FF7C8B58859B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49A34E54-66C2-4D18-8E75-6202DF656FAF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>